--- a/daq_system/inputs/CMS_Control_Test_Dev6.xlsx
+++ b/daq_system/inputs/CMS_Control_Test_Dev6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\configs\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\repos\DAQ\daq_system\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E318C67D-6604-446C-A681-FEAFFC153528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD516A9-908F-4D16-8540-5FC634DF2992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3233" yWindow="67" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="4180" windowWidth="19200" windowHeight="8073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
